--- a/DBschema.xlsx
+++ b/DBschema.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
-  <si>
-    <t>user（ユーザ）</t>
-    <phoneticPr fontId="3"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
   <si>
     <t>カラム名</t>
     <rPh sb="0" eb="1">
@@ -53,26 +49,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>varchar(63)</t>
-  </si>
-  <si>
     <t>name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザ名</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>text</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -90,37 +67,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>varchar(37)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>order（注文）</t>
-    <rPh sb="6" eb="8">
-      <t>チュウモン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
@@ -128,14 +74,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>タイムスタンプ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>meal_id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>弁当ID</t>
     <rPh sb="0" eb="2">
       <t>ベントウ</t>
@@ -150,10 +88,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>varchar(37)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>弁当名</t>
     <rPh sb="0" eb="2">
       <t>ベントウ</t>
@@ -161,10 +95,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>image</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画像ファイルへの相対パス</t>
     <rPh sb="0" eb="2">
       <t>ガゾ</t>
@@ -172,18 +102,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>menu（メニュー）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>例</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
@@ -191,14 +109,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>U6c8f1bb0cfb39e08bb5052f6d6fb632d</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>U6c8f1bb0cfb39e08bb5052f6d6fb632d</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>田中太郎</t>
     <rPh sb="0" eb="2">
       <t>タナカ</t>
@@ -209,14 +119,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unixtime</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unixtime</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>チキン南蛮</t>
     <rPh sb="3" eb="5">
       <t>ナンバン</t>
@@ -227,42 +129,6 @@
     <t>c836f011-069d-901a-5968-0af11c552ba0</t>
   </si>
   <si>
-    <t>c836f011-069d-901a-5968-0af11c552ba0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>upload/c836f011-069d-901a-5968-0af11c552ba0.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ステータス</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>受け取り済:0,注文:1,キャンセル:-1</t>
     <rPh sb="0" eb="1">
       <t>ウ</t>
@@ -279,60 +145,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>デフォルトでは300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>s_price</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>m_price</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>l_price</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サイズ小の値段</t>
-    <rPh sb="3" eb="4">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ネダン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サイズ中の値段</t>
-    <rPh sb="3" eb="4">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ネダン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サイズ大の値段</t>
-    <rPh sb="3" eb="4">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ネダン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>size</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>個数</t>
     <rPh sb="0" eb="2">
       <t>コスウ</t>
@@ -340,10 +152,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>サイズ（小、中、大）</t>
     <rPh sb="4" eb="5">
       <t>ショウ</t>
@@ -357,43 +165,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>小：0、中：1、大：2</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>デフォルトは1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>s_stock</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>m_stock</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>l_stock</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>小の在庫</t>
     <rPh sb="0" eb="1">
       <t>ショウ</t>
@@ -424,18 +195,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>status</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ステータス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>0:無効,1:有効</t>
     <rPh sb="2" eb="4">
       <t>ムコウ</t>
@@ -446,18 +205,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>profile（プロフィール）</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>user_id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>本名</t>
     <rPh sb="0" eb="2">
       <t>ホンミョウ</t>
@@ -465,22 +212,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>grade</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>department</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>course</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>club</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>部活・サークル</t>
     <rPh sb="0" eb="2">
       <t>ブカツ</t>
@@ -509,10 +240,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>工学部</t>
     <rPh sb="0" eb="3">
       <t>コウガクブ</t>
@@ -547,14 +274,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Noneだと登録なし</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Noneだと登録なし</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>0:その他、1~4:学部、5~6修士</t>
     <rPh sb="4" eb="5">
       <t>タ</t>
@@ -575,6 +294,354 @@
     <rPh sb="6" eb="7">
       <t>ネン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(37)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主キー</t>
+  </si>
+  <si>
+    <t>U6c8f1bb0cfb39e08bb5052f6d6fb632d</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>profile（プロフィール）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(37)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>U6c8f1bb0cfb39e08bb5052f6d6fb632d</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>course</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>club</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(37)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>U6c8f1bb0cfb39e08bb5052f6d6fb632d</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>主キー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>meal_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(37)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主キー,小：0、中：1、大：2</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デフォルトは1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タイムスタンプ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>unixtime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスターテーブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar(37)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>upload/c836f011-069d-901a-5968-0af11c552ba0.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s_price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイズ小の値段(税込)</t>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼイコミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>m_price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイズ中の値段(税込)</t>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ネダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Noneだと登録なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>l_price</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイズ大の値段(税込)</t>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ネダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Noneだと登録なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>menu（メニュー）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マスターテーブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>meal_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar(37)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>c836f011-069d-901a-5968-0af11c552ba0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>s_stock</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m_stock</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>l_stock</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タイムスタンプ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>unixtime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>orders（注文）</t>
+    <rPh sb="7" eb="9">
+      <t>チュウモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>users（ユーザ）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>デフォルトでは100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デフォルトでは100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デフォルトでは100</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -679,7 +746,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル25" displayName="テーブル25" ref="A3:E6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル255" displayName="テーブル255" ref="A3:E6" totalsRowShown="0">
   <autoFilter ref="A3:E6"/>
   <tableColumns count="5">
     <tableColumn id="1" name="カラム名"/>
@@ -693,7 +760,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="テーブル31322" displayName="テーブル31322" ref="A19:E26" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="テーブル313228" displayName="テーブル313228" ref="A19:E26" totalsRowShown="0">
   <autoFilter ref="A19:E26"/>
   <tableColumns count="5">
     <tableColumn id="1" name="カラム名"/>
@@ -707,7 +774,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル253" displayName="テーブル253" ref="A30:E36" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="テーブル2539" displayName="テーブル2539" ref="A30:E36" totalsRowShown="0">
   <autoFilter ref="A30:E36"/>
   <tableColumns count="5">
     <tableColumn id="1" name="カラム名"/>
@@ -721,7 +788,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル313224" displayName="テーブル313224" ref="A40:E46" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="テーブル31322410" displayName="テーブル31322410" ref="A40:E46" totalsRowShown="0">
   <autoFilter ref="A40:E46"/>
   <tableColumns count="5">
     <tableColumn id="1" name="カラム名"/>
@@ -735,7 +802,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="テーブル257" displayName="テーブル257" ref="A10:E16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="テーブル25711" displayName="テーブル25711" ref="A10:E16" totalsRowShown="0">
   <autoFilter ref="A10:E16"/>
   <tableColumns count="5">
     <tableColumn id="1" name="カラム名"/>
@@ -1013,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1029,69 +1096,69 @@
   <sheetData>
     <row r="2" spans="1:5" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1099,167 +1166,167 @@
     </row>
     <row r="9" spans="1:5" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
       </c>
       <c r="E21" s="2">
         <v>20190810</v>
@@ -1267,30 +1334,33 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>65</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -1298,33 +1368,33 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E24" s="2">
-        <v>1565409468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1332,100 +1402,103 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2">
-        <v>1</v>
+        <v>1565409468</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E34" s="2">
         <v>300</v>
@@ -1433,16 +1506,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E35" s="2">
         <v>300</v>
@@ -1450,16 +1523,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36" s="2">
         <v>400</v>
@@ -1467,38 +1540,41 @@
     </row>
     <row r="39" spans="1:5" ht="20" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>94</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>41</v>
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
       </c>
       <c r="E41" s="2">
         <v>20190810</v>
@@ -1506,33 +1582,33 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="E43" s="2">
         <v>300</v>
@@ -1540,16 +1616,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="E44" s="2">
         <v>300</v>
@@ -1557,16 +1633,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E45" s="2">
         <v>300</v>
@@ -1574,16 +1650,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="E46" s="2">
         <v>1565409468</v>
